--- a/biology/Zoologie/Charles_Domergue/Charles_Domergue.xlsx
+++ b/biology/Zoologie/Charles_Domergue/Charles_Domergue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Antoine Domergue né le 5 janvier 1914 à Besançon (France) et mort le 31 décembre 2008 à Tananarive (Madagascar) est un explorateur, naturaliste, ornithologue, herpétologue, spéléologue, géologue et résistant français. Il a été un précurseur de la molysmologie (science des effets des pollutions[1]) et un promoteur d'un maillage territorial de réserves de biodiversité. Il eut un fils, Claude Domergue, aviateur, né en 1944.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Antoine Domergue né le 5 janvier 1914 à Besançon (France) et mort le 31 décembre 2008 à Tananarive (Madagascar) est un explorateur, naturaliste, ornithologue, herpétologue, spéléologue, géologue et résistant français. Il a été un précurseur de la molysmologie (science des effets des pollutions) et un promoteur d'un maillage territorial de réserves de biodiversité. Il eut un fils, Claude Domergue, aviateur, né en 1944.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il sillonna les pays d'Afrique du Nord de l'Empire colonial français pour créer des oasis jusqu'à l'indépendance de la Tunisie puis de l'Algérie. Il devint alors herpétologue et travailla pour le Muséum national d'histoire naturelle de Paris avec son collègue Édouard-Raoul Brygoo, puis pour l'Institut Pasteur de Tananarive à Madagascar[2] où il passa une grande partie de sa vie. Il disposait dans ce pays d’un laboratoire à l'Institut Pasteur de Madagascar, où il travaillait encore quand il est mort. Il a été professeur à l'Université de Toliara, Madagascar, et a été membre de l'Académie malgache. Il a décrit de nombreuses espèces et sous-espèces, notamment de caméléons, de Madagascar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il sillonna les pays d'Afrique du Nord de l'Empire colonial français pour créer des oasis jusqu'à l'indépendance de la Tunisie puis de l'Algérie. Il devint alors herpétologue et travailla pour le Muséum national d'histoire naturelle de Paris avec son collègue Édouard-Raoul Brygoo, puis pour l'Institut Pasteur de Tananarive à Madagascar où il passa une grande partie de sa vie. Il disposait dans ce pays d’un laboratoire à l'Institut Pasteur de Madagascar, où il travaillait encore quand il est mort. Il a été professeur à l'Université de Toliara, Madagascar, et a été membre de l'Académie malgache. Il a décrit de nombreuses espèces et sous-espèces, notamment de caméléons, de Madagascar.
 Il a publié de nombreux articles et ouvrages sur ses nombreux sujets de prédilection.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Genre décrit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brygophis Domergue &amp; Bour, 1988</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brookesia peyrierasi, Brygoo &amp; Domergue, 1975 ;
 Brookesia ramanantsoai, Brygoo &amp; Domergue, 1975 ;
@@ -632,10 +650,12 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-genre Domerguella, regroupant cinq espèces de geckos du genre Lygodactylus, lui est dédié.
-Pour nombre de naturalistes, la forêt PK 32 au nord de la ville de Toliara à Madagascar est connue sous le nom de « Forêt Domergue »[3] en hommage à ses prospections sur ce site remarquable et à son action pour sa mise en réserve[4].
+Pour nombre de naturalistes, la forêt PK 32 au nord de la ville de Toliara à Madagascar est connue sous le nom de « Forêt Domergue » en hommage à ses prospections sur ce site remarquable et à son action pour sa mise en réserve.
 </t>
         </is>
       </c>
@@ -664,7 +684,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1942 : Les serpents de Franche-Comté » : Description, habitat, reproduction, venin, chasse, vie en captivité, légendes suivis d'une brève étude des lézards (avec 27 illustrations dont 17 dessins de l'auteur). édition Imprimerie de l'Est (Besançon) ;
 1962 : Un serpent venimeux à Madagascar : Madagascarophis colubrina. Bull. Acad. malg. ;
@@ -703,7 +725,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>14 juillet 1967 : Chevalier de la légion d'honneur
 1939-1945 : Croix de guerre 1939-1945
